--- a/GBDS JANUARY FILES 2026/DSSR CALC.xlsx
+++ b/GBDS JANUARY FILES 2026/DSSR CALC.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4BE2F7-D733-4E0C-9926-823A67C9229A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251AD336-267B-46A0-B41A-9A419BBC9418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{220BD867-0FD9-4CE4-B332-F0CC3D8872DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{220BD867-0FD9-4CE4-B332-F0CC3D8872DE}"/>
   </bookViews>
   <sheets>
     <sheet name="DSSR CALC" sheetId="1" r:id="rId1"/>
+    <sheet name="DSSR CALC (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,8 +89,66 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{684CAC0C-1AD1-4538-9206-68E0BB9796D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+OVER ALL TOTAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{FE857EC3-D6F5-4FDF-BD5F-425B25372EDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+OVER ALL TOTAL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -132,7 +191,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -211,6 +270,12 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -219,12 +284,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D075813B-A78C-486B-B1EE-8C0ADDEEF0E8}">
   <dimension ref="A2:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +624,7 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -573,7 +632,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>45669</v>
       </c>
     </row>
@@ -1103,17 +1162,595 @@
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="13">
         <f>B5-C16+C27</f>
         <v>57545.440000000002</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>45871</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f>SUM(C42:C44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11735E6C-D995-427E-A9E6-D8447190272D}">
+  <dimension ref="A2:O48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <v>57518.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>45658</v>
+      </c>
+      <c r="C9" s="9">
+        <v>586.17999999999995</v>
+      </c>
+      <c r="D9" s="9">
+        <f>B5-C9-0.76</f>
+        <v>56931.729999999996</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45666</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2041.34</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45673</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="K9" s="1">
+        <v>45680</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="N9" s="1">
+        <v>45870</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>45659</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1424.17</v>
+      </c>
+      <c r="D10" s="9">
+        <f>D9-C10+0.73-0.24</f>
+        <v>55508.05</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45667</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1686.33</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45674</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="K10" s="1">
+        <v>45681</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="N10" s="1">
+        <v>45871</v>
+      </c>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>45660</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
+        <f>D10-C11</f>
+        <v>55508.05</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45668</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1555.44</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45675</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="K11" s="1">
+        <v>45682</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="N11" s="1">
+        <v>45872</v>
+      </c>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>45663</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" s="1">
+        <v>45669</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1664.08</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45676</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="K12" s="1">
+        <v>45683</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>45664</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" s="1">
+        <v>45670</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1486.38</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45677</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="K13" s="1">
+        <v>45684</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>45665</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" s="1">
+        <v>45671</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1328.25</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45678</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="K14" s="1">
+        <v>45685</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <f>SUM(C9:C14)</f>
+        <v>2010.35</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <f>SUM(F9:F14)</f>
+        <v>9761.82</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <f>SUM(I9:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8">
+        <f>SUM(L9:L14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8">
+        <f>SUM(O9:O14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8">
+        <f>C15+F15+I15+L15+O15</f>
+        <v>11772.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>45658</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1836</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45658</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="H20" s="1">
+        <v>45658</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="K20" s="1">
+        <v>45658</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="N20" s="1">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>45659</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1836</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45659</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="H21" s="1">
+        <v>45659</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="K21" s="1">
+        <v>45659</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="N21" s="1">
+        <v>45871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>45660</v>
+      </c>
+      <c r="C22" s="9">
+        <v>738</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45660</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="H22" s="1">
+        <v>45660</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="K22" s="1">
+        <v>45660</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>45663</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="E23" s="1">
+        <v>45663</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="H23" s="1">
+        <v>45663</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="K23" s="1">
+        <v>45663</v>
+      </c>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>45664</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="E24" s="1">
+        <v>45664</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="H24" s="1">
+        <v>45664</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="K24" s="1">
+        <v>45664</v>
+      </c>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>45665</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="E25" s="1">
+        <v>45665</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="H25" s="1">
+        <v>45665</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="K25" s="1">
+        <v>45665</v>
+      </c>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <f>SUM(C20:C25)</f>
+        <v>4410</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <f>SUM(F20:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8">
+        <f>SUM(I20:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8">
+        <f>SUM(L20:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="8">
+        <f>SUM(O20:O25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8">
+        <f>C26+F26+I26+L26+O26</f>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="13">
+        <f>B5-C16+C27</f>
+        <v>50156.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
